--- a/elementalSword/board/Track Tables.xlsx
+++ b/elementalSword/board/Track Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samir.farooq\Documents\GitHub\Python-Scripts\elementalSword\board\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0021F60-C276-4600-9343-4358AF3FA8E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E238E61-62D4-47D0-A466-CAC1BC9D9DA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{F8D877CA-DAF7-4921-B5A5-A5480F401BF8}"/>
+    <workbookView xWindow="28680" yWindow="6750" windowWidth="29040" windowHeight="17640" xr2:uid="{F8D877CA-DAF7-4921-B5A5-A5480F401BF8}"/>
   </bookViews>
   <sheets>
     <sheet name="Combat" sheetId="3" r:id="rId1"/>
@@ -20,8 +20,9 @@
     <sheet name="Knowledge Transposed" sheetId="6" r:id="rId5"/>
     <sheet name="Food" sheetId="7" r:id="rId6"/>
     <sheet name="Crafting" sheetId="8" r:id="rId7"/>
-    <sheet name="Ore" sheetId="9" r:id="rId8"/>
-    <sheet name="Constraints" sheetId="10" r:id="rId9"/>
+    <sheet name="Cloth" sheetId="11" r:id="rId8"/>
+    <sheet name="Ore" sheetId="9" r:id="rId9"/>
+    <sheet name="Constraints" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="134">
   <si>
     <t>Combat Level:</t>
   </si>
@@ -428,6 +429,21 @@
   </si>
   <si>
     <t>Major Actions</t>
+  </si>
+  <si>
+    <t>Impact</t>
+  </si>
+  <si>
+    <t>Old Fodker</t>
+  </si>
+  <si>
+    <t>Old Enfeir</t>
+  </si>
+  <si>
+    <t>Old Zinzibar</t>
+  </si>
+  <si>
+    <t>Luxurious</t>
   </si>
 </sst>
 </file>
@@ -1416,7 +1432,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1457,76 +1473,19 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="43" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="47" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="48" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
@@ -1558,9 +1517,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="53" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1588,18 +1544,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="59" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -1610,25 +1554,12 @@
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="48" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="60" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="61" xfId="0" applyBorder="1"/>
@@ -1649,20 +1580,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="67" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1703,12 +1622,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1718,6 +1633,121 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="36" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="46" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="45" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="39" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="37" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="38" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="47" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="65" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2063,8 +2093,8 @@
       <c r="B2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="24"/>
+      <c r="C2" s="110"/>
+      <c r="D2" s="111"/>
       <c r="E2" s="9" t="s">
         <v>12</v>
       </c>
@@ -2115,7 +2145,7 @@
       <c r="F6" s="7"/>
     </row>
     <row r="7" spans="2:6" ht="49.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="141" t="s">
+      <c r="B7" s="106" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="8"/>
@@ -2181,28 +2211,28 @@
       <c r="B14" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="27"/>
+      <c r="C14" s="112"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="113"/>
+      <c r="F14" s="114"/>
     </row>
     <row r="15" spans="2:6" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="28"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="30"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="117"/>
     </row>
     <row r="16" spans="2:6" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B16" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
+      <c r="C16" s="107"/>
+      <c r="D16" s="108"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="109"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2216,12 +2246,102 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D439D8A9-75E6-4F48-BEA7-26196B107E54}">
+  <dimension ref="A1:G4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.140625" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="C1" s="100" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="100" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="100" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" s="100" t="s">
+        <v>116</v>
+      </c>
+      <c r="G1" s="140" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="105" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" s="20"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="32"/>
+    </row>
+    <row r="3" spans="1:7" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="98" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" s="101" t="s">
+        <v>123</v>
+      </c>
+      <c r="C3" s="102" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="138" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="138"/>
+      <c r="F3" s="102" t="s">
+        <v>117</v>
+      </c>
+      <c r="G3" s="32"/>
+    </row>
+    <row r="4" spans="1:7" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="104" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="68"/>
+      <c r="C4" s="68"/>
+      <c r="D4" s="139"/>
+      <c r="E4" s="139"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="66"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B98CBB87-6247-4A28-BFCD-D5D17A9736AF}">
   <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:H16"/>
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2233,220 +2353,220 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.15" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="113"/>
-      <c r="C1" s="114"/>
-      <c r="D1" s="115" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="82" t="s">
         <v>61</v>
       </c>
-      <c r="E1" s="116" t="s">
+      <c r="E1" s="83" t="s">
         <v>46</v>
       </c>
-      <c r="F1" s="116" t="s">
+      <c r="F1" s="83" t="s">
         <v>119</v>
       </c>
-      <c r="G1" s="116" t="s">
+      <c r="G1" s="83" t="s">
         <v>61</v>
       </c>
-      <c r="H1" s="117" t="s">
+      <c r="H1" s="84" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="119" t="s">
+      <c r="B2" s="86" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="119" t="s">
+      <c r="C2" s="86" t="s">
         <v>35</v>
       </c>
-      <c r="D2" s="120" t="s">
+      <c r="D2" s="87" t="s">
         <v>36</v>
       </c>
-      <c r="E2" s="120" t="s">
+      <c r="E2" s="87" t="s">
         <v>37</v>
       </c>
-      <c r="F2" s="120" t="s">
+      <c r="F2" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="G2" s="120" t="s">
+      <c r="G2" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="121" t="s">
+      <c r="H2" s="88" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="122" t="s">
+      <c r="A3" s="89" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="123"/>
-      <c r="C3" s="123"/>
-      <c r="D3" s="123"/>
-      <c r="E3" s="123"/>
-      <c r="F3" s="123"/>
-      <c r="G3" s="123"/>
-      <c r="H3" s="124"/>
+      <c r="B3" s="90"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="90"/>
+      <c r="G3" s="90"/>
+      <c r="H3" s="91"/>
     </row>
     <row r="4" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="125" t="s">
+      <c r="A4" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
-      <c r="G4" s="126"/>
-      <c r="H4" s="127"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="93"/>
+      <c r="H4" s="94"/>
     </row>
     <row r="5" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="126"/>
-      <c r="C5" s="126"/>
-      <c r="D5" s="126"/>
-      <c r="E5" s="126"/>
-      <c r="F5" s="126"/>
-      <c r="G5" s="126"/>
-      <c r="H5" s="127"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="93"/>
+      <c r="E5" s="93"/>
+      <c r="F5" s="93"/>
+      <c r="G5" s="93"/>
+      <c r="H5" s="94"/>
     </row>
     <row r="6" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="125" t="s">
+      <c r="A6" s="92" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="126"/>
-      <c r="C6" s="126"/>
-      <c r="D6" s="126"/>
-      <c r="E6" s="126"/>
-      <c r="F6" s="126"/>
-      <c r="G6" s="126"/>
-      <c r="H6" s="127"/>
+      <c r="B6" s="93"/>
+      <c r="C6" s="93"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="93"/>
+      <c r="F6" s="93"/>
+      <c r="G6" s="93"/>
+      <c r="H6" s="94"/>
     </row>
     <row r="7" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="125" t="s">
+      <c r="A7" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="126"/>
-      <c r="C7" s="126"/>
-      <c r="D7" s="126"/>
-      <c r="E7" s="126"/>
-      <c r="F7" s="126"/>
-      <c r="G7" s="126"/>
-      <c r="H7" s="127"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="93"/>
+      <c r="D7" s="93"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="93"/>
+      <c r="G7" s="93"/>
+      <c r="H7" s="94"/>
     </row>
     <row r="8" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="125" t="s">
+      <c r="A8" s="92" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="126"/>
-      <c r="C8" s="126"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="126"/>
-      <c r="G8" s="126"/>
-      <c r="H8" s="127"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="93"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="93"/>
+      <c r="G8" s="93"/>
+      <c r="H8" s="94"/>
     </row>
     <row r="9" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="125" t="s">
+      <c r="A9" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="126"/>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="127"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="93"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="93"/>
+      <c r="G9" s="93"/>
+      <c r="H9" s="94"/>
     </row>
     <row r="10" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="125" t="s">
+      <c r="A10" s="92" t="s">
         <v>27</v>
       </c>
-      <c r="B10" s="126"/>
-      <c r="C10" s="126"/>
-      <c r="D10" s="126"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="126"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="127"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="93"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="93"/>
+      <c r="G10" s="93"/>
+      <c r="H10" s="94"/>
     </row>
     <row r="11" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="125" t="s">
+      <c r="A11" s="92" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="126"/>
-      <c r="C11" s="126"/>
-      <c r="D11" s="126"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="126"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="127"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="93"/>
+      <c r="G11" s="93"/>
+      <c r="H11" s="94"/>
     </row>
     <row r="12" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="125" t="s">
+      <c r="A12" s="92" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="126"/>
-      <c r="C12" s="126"/>
-      <c r="D12" s="126"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="126"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="127"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="94"/>
     </row>
     <row r="13" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="125" t="s">
+      <c r="A13" s="92" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="126"/>
-      <c r="C13" s="126"/>
-      <c r="D13" s="126"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="126"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="127"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="93"/>
+      <c r="D13" s="93"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="93"/>
+      <c r="G13" s="93"/>
+      <c r="H13" s="94"/>
     </row>
     <row r="14" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="125" t="s">
+      <c r="A14" s="92" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="126"/>
-      <c r="C14" s="126"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="127"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="93"/>
+      <c r="D14" s="93"/>
+      <c r="E14" s="93"/>
+      <c r="F14" s="93"/>
+      <c r="G14" s="93"/>
+      <c r="H14" s="94"/>
     </row>
     <row r="15" spans="1:8" ht="22.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="125" t="s">
+      <c r="A15" s="92" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="126"/>
-      <c r="C15" s="126"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="127"/>
+      <c r="B15" s="93"/>
+      <c r="C15" s="93"/>
+      <c r="D15" s="93"/>
+      <c r="E15" s="93"/>
+      <c r="F15" s="93"/>
+      <c r="G15" s="93"/>
+      <c r="H15" s="94"/>
     </row>
     <row r="16" spans="1:8" ht="22.15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="128" t="s">
+      <c r="A16" s="95" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="130"/>
+      <c r="B16" s="96"/>
+      <c r="C16" s="96"/>
+      <c r="D16" s="96"/>
+      <c r="E16" s="96"/>
+      <c r="F16" s="96"/>
+      <c r="G16" s="96"/>
+      <c r="H16" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2472,135 +2592,135 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="25.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="126"/>
+      <c r="E1" s="127"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="24"/>
     </row>
     <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
-      <c r="B2" s="41"/>
-      <c r="C2" s="42" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="122" t="s">
         <v>43</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="43"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="123"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="40"/>
-      <c r="B3" s="34"/>
-      <c r="C3" s="35">
+      <c r="A3" s="25"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="22">
         <v>1</v>
       </c>
-      <c r="D3" s="35">
+      <c r="D3" s="22">
         <v>2</v>
       </c>
-      <c r="E3" s="35">
+      <c r="E3" s="22">
         <v>3</v>
       </c>
-      <c r="F3" s="35">
+      <c r="F3" s="22">
         <v>4</v>
       </c>
-      <c r="G3" s="44">
+      <c r="G3" s="27">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="45" t="s">
+      <c r="A4" s="120" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="34">
+      <c r="B4" s="21">
         <v>1</v>
       </c>
-      <c r="C4" s="34"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="34"/>
-      <c r="F4" s="34"/>
-      <c r="G4" s="46"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="28"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="45"/>
-      <c r="B5" s="34">
+      <c r="A5" s="120"/>
+      <c r="B5" s="21">
         <v>2</v>
       </c>
-      <c r="C5" s="34"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="46"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="28"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="34">
+      <c r="A6" s="120"/>
+      <c r="B6" s="21">
         <v>3</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="34"/>
-      <c r="G6" s="46"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="28"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="34">
+      <c r="A7" s="120"/>
+      <c r="B7" s="21">
         <v>4</v>
       </c>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="46"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="28"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="45"/>
-      <c r="B8" s="34">
+      <c r="A8" s="120"/>
+      <c r="B8" s="21">
         <v>5</v>
       </c>
-      <c r="C8" s="34"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="46"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="28"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="45"/>
-      <c r="B9" s="34">
+      <c r="A9" s="120"/>
+      <c r="B9" s="21">
         <v>6</v>
       </c>
-      <c r="C9" s="34"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="46"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="45"/>
-      <c r="B10" s="34">
+      <c r="A10" s="120"/>
+      <c r="B10" s="21">
         <v>7</v>
       </c>
-      <c r="C10" s="34"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="46"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="28"/>
     </row>
     <row r="11" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="47"/>
-      <c r="B11" s="48">
+      <c r="A11" s="121"/>
+      <c r="B11" s="29">
         <v>8</v>
       </c>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2630,106 +2750,106 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="24.95" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="52" t="s">
+      <c r="A1" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="53"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="34"/>
     </row>
     <row r="2" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="54" t="s">
+      <c r="B2" s="35" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="54" t="s">
+      <c r="C2" s="35" t="s">
         <v>56</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="36" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="61"/>
-      <c r="C3" s="61"/>
-      <c r="D3" s="62"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
     </row>
     <row r="4" spans="1:4" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="63" t="s">
+      <c r="A4" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="64"/>
-      <c r="D4" s="65"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
     </row>
     <row r="5" spans="1:4" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="B5" s="64"/>
-      <c r="C5" s="64"/>
-      <c r="D5" s="65"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46"/>
     </row>
     <row r="6" spans="1:4" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="44" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="64"/>
-      <c r="C6" s="64"/>
-      <c r="D6" s="65"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
     </row>
     <row r="7" spans="1:4" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="64"/>
-      <c r="C7" s="64"/>
-      <c r="D7" s="65"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
     </row>
     <row r="8" spans="1:4" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="B8" s="64"/>
-      <c r="C8" s="64"/>
-      <c r="D8" s="65"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
     </row>
     <row r="9" spans="1:4" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="63" t="s">
+      <c r="A9" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="64"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="65"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
     </row>
     <row r="10" spans="1:4" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="63" t="s">
+      <c r="A10" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
     </row>
     <row r="11" spans="1:4" ht="22.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="65"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
     </row>
     <row r="12" spans="1:4" ht="22.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="56" t="s">
+      <c r="A12" s="37" t="s">
         <v>54</v>
       </c>
-      <c r="B12" s="57"/>
-      <c r="C12" s="57"/>
-      <c r="D12" s="58"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="39"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2754,99 +2874,99 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="25.35" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="48" t="s">
         <v>44</v>
       </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="84"/>
-      <c r="D1" s="80"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="70"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="50"/>
     </row>
     <row r="2" spans="1:11" ht="81" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="66" t="s">
+      <c r="A2" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="B2" s="81" t="s">
+      <c r="B2" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="82" t="s">
+      <c r="C2" s="62" t="s">
         <v>46</v>
       </c>
-      <c r="D2" s="77" t="s">
+      <c r="D2" s="57" t="s">
         <v>47</v>
       </c>
-      <c r="E2" s="77" t="s">
+      <c r="E2" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="F2" s="77" t="s">
+      <c r="F2" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="G2" s="77" t="s">
+      <c r="G2" s="57" t="s">
         <v>50</v>
       </c>
-      <c r="H2" s="77" t="s">
+      <c r="H2" s="57" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="77" t="s">
+      <c r="I2" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="77" t="s">
+      <c r="J2" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="71" t="s">
+      <c r="K2" s="51" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="78"/>
-      <c r="D3" s="78"/>
-      <c r="E3" s="78"/>
-      <c r="F3" s="78"/>
-      <c r="G3" s="78"/>
-      <c r="H3" s="78"/>
-      <c r="I3" s="78"/>
-      <c r="J3" s="78"/>
-      <c r="K3" s="72"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
+      <c r="K3" s="52"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="47" t="s">
         <v>56</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="78"/>
-      <c r="H4" s="78"/>
-      <c r="I4" s="78"/>
-      <c r="J4" s="78"/>
-      <c r="K4" s="72"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="58"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="58"/>
+      <c r="I4" s="58"/>
+      <c r="J4" s="58"/>
+      <c r="K4" s="52"/>
     </row>
     <row r="5" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="73" t="s">
+      <c r="A5" s="53" t="s">
         <v>57</v>
       </c>
-      <c r="B5" s="76"/>
-      <c r="C5" s="79"/>
-      <c r="D5" s="79"/>
-      <c r="E5" s="79"/>
-      <c r="F5" s="79"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="79"/>
-      <c r="I5" s="79"/>
-      <c r="J5" s="79"/>
-      <c r="K5" s="74"/>
+      <c r="B5" s="56"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
+      <c r="J5" s="59"/>
+      <c r="K5" s="54"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2871,83 +2991,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="85" t="s">
+      <c r="A1" s="131" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="86"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="133"/>
     </row>
     <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="31" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="32" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87" t="s">
+      <c r="A3" s="63" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="31"/>
-      <c r="C3" s="92" t="s">
+      <c r="B3" s="20"/>
+      <c r="C3" s="67" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87" t="s">
+      <c r="A4" s="63" t="s">
         <v>63</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="92" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="67" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="63" t="s">
         <v>64</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="92" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="67" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="63" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="92" t="s">
+      <c r="B6" s="20"/>
+      <c r="C6" s="67" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="87" t="s">
+      <c r="A7" s="63" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="31"/>
-      <c r="C7" s="92" t="s">
+      <c r="B7" s="20"/>
+      <c r="C7" s="67" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88" t="s">
+      <c r="A8" s="64" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="92" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="67" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B9" s="93"/>
-      <c r="C9" s="94" t="s">
+      <c r="B9" s="68"/>
+      <c r="C9" s="69" t="s">
         <v>75</v>
       </c>
     </row>
@@ -2964,135 +3084,137 @@
   <dimension ref="A1:P17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16:P17"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="7.140625" customWidth="1"/>
+    <col min="2" max="2" width="7" customWidth="1"/>
     <col min="3" max="16" width="6.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="141" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="96"/>
+      <c r="B1" s="142"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="143" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="103" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="143" t="s">
         <v>79</v>
       </c>
-      <c r="B3" s="51"/>
+      <c r="B3" s="103"/>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="50" t="s">
+      <c r="A4" s="143" t="s">
         <v>80</v>
       </c>
-      <c r="B4" s="51"/>
+      <c r="B4" s="103"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="50" t="s">
+      <c r="A5" s="143" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="51"/>
+      <c r="B5" s="103"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="143" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="51"/>
+      <c r="B6" s="103"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="143" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="51"/>
+      <c r="B7" s="103"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="50" t="s">
+      <c r="A8" s="143" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="51"/>
+      <c r="B8" s="103"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="50" t="s">
+      <c r="A9" s="143" t="s">
         <v>85</v>
       </c>
-      <c r="B9" s="51"/>
+      <c r="B9" s="103"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="50" t="s">
+      <c r="A10" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="51"/>
+      <c r="B10" s="103"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="50" t="s">
+      <c r="A11" s="143" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="51"/>
+      <c r="B11" s="103"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="50" t="s">
+      <c r="A12" s="143" t="s">
         <v>88</v>
       </c>
-      <c r="B12" s="51"/>
+      <c r="B12" s="103"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="143" t="s">
         <v>89</v>
       </c>
-      <c r="B13" s="51"/>
+      <c r="B13" s="103"/>
     </row>
     <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="97" t="s">
+      <c r="A14" s="144" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="90"/>
+      <c r="B14" s="145"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="110" t="s">
+      <c r="C16" s="136" t="s">
         <v>113</v>
       </c>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
-      <c r="I16" s="110"/>
-      <c r="J16" s="110" t="s">
+      <c r="D16" s="136"/>
+      <c r="E16" s="136"/>
+      <c r="F16" s="136"/>
+      <c r="G16" s="136"/>
+      <c r="H16" s="136"/>
+      <c r="I16" s="136"/>
+      <c r="J16" s="136" t="s">
         <v>114</v>
       </c>
-      <c r="K16" s="110"/>
-      <c r="L16" s="110"/>
-      <c r="M16" s="110"/>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
+      <c r="K16" s="136"/>
+      <c r="L16" s="136"/>
+      <c r="M16" s="136"/>
+      <c r="N16" s="136"/>
+      <c r="O16" s="136"/>
+      <c r="P16" s="136"/>
     </row>
     <row r="17" spans="3:16" x14ac:dyDescent="0.25">
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="31"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
-      <c r="J17" s="31"/>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="31"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="20"/>
+      <c r="N17" s="20"/>
+      <c r="O17" s="20"/>
+      <c r="P17" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3105,6 +3227,114 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB2E178A-74F5-4618-8536-DE15FECF45C2}">
+  <dimension ref="A1:B14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.5703125" customWidth="1"/>
+    <col min="2" max="2" width="6.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="146" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="147"/>
+    </row>
+    <row r="2" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="143" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="103" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="143" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="103"/>
+    </row>
+    <row r="4" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="143" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="103"/>
+    </row>
+    <row r="5" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="143" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="103"/>
+    </row>
+    <row r="6" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="143" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="103"/>
+    </row>
+    <row r="7" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="143" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7" s="103"/>
+    </row>
+    <row r="8" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="143" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" s="103"/>
+    </row>
+    <row r="9" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="143" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" s="103"/>
+    </row>
+    <row r="10" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="143" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="103"/>
+    </row>
+    <row r="11" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="143" t="s">
+        <v>130</v>
+      </c>
+      <c r="B11" s="103"/>
+    </row>
+    <row r="12" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="143" t="s">
+        <v>131</v>
+      </c>
+      <c r="B12" s="103"/>
+    </row>
+    <row r="13" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="143" t="s">
+        <v>132</v>
+      </c>
+      <c r="B13" s="103"/>
+    </row>
+    <row r="14" spans="1:2" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="144" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="145"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D2CDEC5-34F3-4974-A58F-88CD4DECE722}">
   <dimension ref="A1:C18"/>
   <sheetViews>
@@ -3120,164 +3350,164 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+      <c r="A1" s="134" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="96"/>
+      <c r="B1" s="137"/>
+      <c r="C1" s="135"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="B2" s="99" t="s">
+      <c r="B2" s="70" t="s">
         <v>77</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="71" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="103" t="s">
+      <c r="A3" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="104"/>
-      <c r="C3" s="105" t="s">
+      <c r="B3" s="75"/>
+      <c r="C3" s="76" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="106" t="s">
+      <c r="A4" s="77" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="51" t="s">
+      <c r="B4" s="20"/>
+      <c r="C4" s="32" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="51" t="s">
+      <c r="B5" s="20"/>
+      <c r="C5" s="32" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="107" t="s">
+      <c r="A6" s="78" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="93"/>
-      <c r="C6" s="90" t="s">
+      <c r="B6" s="68"/>
+      <c r="C6" s="66" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="103" t="s">
+      <c r="A7" s="74" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="104"/>
-      <c r="C7" s="105" t="s">
+      <c r="B7" s="75"/>
+      <c r="C7" s="76" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="106" t="s">
+      <c r="A8" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="31"/>
-      <c r="C8" s="51" t="s">
+      <c r="B8" s="20"/>
+      <c r="C8" s="32" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="106" t="s">
+      <c r="A9" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="51" t="s">
+      <c r="B9" s="20"/>
+      <c r="C9" s="32" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="107" t="s">
+      <c r="A10" s="78" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="93"/>
-      <c r="C10" s="90" t="s">
+      <c r="B10" s="68"/>
+      <c r="C10" s="66" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="103" t="s">
+      <c r="A11" s="74" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="104"/>
-      <c r="C11" s="105" t="s">
+      <c r="B11" s="75"/>
+      <c r="C11" s="76" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="106" t="s">
+      <c r="A12" s="77" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="31"/>
-      <c r="C12" s="51" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="32" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="106" t="s">
+      <c r="A13" s="77" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="51" t="s">
+      <c r="B13" s="20"/>
+      <c r="C13" s="32" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="107" t="s">
+      <c r="A14" s="78" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="93"/>
-      <c r="C14" s="90" t="s">
+      <c r="B14" s="68"/>
+      <c r="C14" s="66" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="109" t="s">
+      <c r="A15" s="80" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="101"/>
-      <c r="C15" s="102" t="s">
+      <c r="B15" s="72"/>
+      <c r="C15" s="73" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="106" t="s">
+      <c r="A16" s="77" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="51" t="s">
+      <c r="B16" s="20"/>
+      <c r="C16" s="32" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="106" t="s">
+      <c r="A17" s="77" t="s">
         <v>105</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="51" t="s">
+      <c r="B17" s="20"/>
+      <c r="C17" s="32" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="107" t="s">
+      <c r="A18" s="78" t="s">
         <v>106</v>
       </c>
-      <c r="B18" s="93"/>
-      <c r="C18" s="90" t="s">
+      <c r="B18" s="68"/>
+      <c r="C18" s="66" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3287,88 +3517,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D439D8A9-75E6-4F48-BEA7-26196B107E54}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="13.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" customWidth="1"/>
-    <col min="4" max="4" width="13.140625" customWidth="1"/>
-    <col min="5" max="5" width="13" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="131" t="s">
-        <v>120</v>
-      </c>
-      <c r="B1" s="132" t="s">
-        <v>125</v>
-      </c>
-      <c r="C1" s="133" t="s">
-        <v>126</v>
-      </c>
-      <c r="D1" s="133" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" s="133" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" s="134" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="140" t="s">
-        <v>122</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="51"/>
-    </row>
-    <row r="3" spans="1:6" ht="12.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="131" t="s">
-        <v>121</v>
-      </c>
-      <c r="B3" s="135" t="s">
-        <v>123</v>
-      </c>
-      <c r="C3" s="136" t="s">
-        <v>118</v>
-      </c>
-      <c r="D3" s="137" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="137"/>
-      <c r="F3" s="138" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="139" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="111"/>
-      <c r="E4" s="111"/>
-      <c r="F4" s="90"/>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D4:E4"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-</worksheet>
 </file>